--- a/Tomoru/Создание Резюме/Чек-лист.xlsx
+++ b/Tomoru/Создание Резюме/Чек-лист.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\night\git\portfolio\Tomoru\Regress\Профиль\Создание Резюме\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\night\git\portfolio\Test-Suites-and-Test-Cases\Tomoru\Создание Резюме\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C33575F-C1D3-4F3B-BA5E-DE6F6EEB92C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AF91AC-010F-4FA8-8810-DF3628B5FCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8201259A-1543-47AD-BDAA-4BFA549F71B9}"/>
   </bookViews>
@@ -197,19 +197,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -234,6 +221,17 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -243,6 +241,27 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -252,34 +271,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -599,251 +597,251 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="4"/>
-    <col min="2" max="2" width="15.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.21875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="42.44140625" style="4" customWidth="1"/>
-    <col min="6" max="9" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.44140625" style="1" customWidth="1"/>
+    <col min="6" max="9" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="13">
         <v>45755</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="6" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="7" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="7" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="12" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="7" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="7" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="7" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="12" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="7" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Tomoru/Создание Резюме/Чек-лист.xlsx
+++ b/Tomoru/Создание Резюме/Чек-лист.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\night\git\portfolio\Test-Suites-and-Test-Cases\Tomoru\Создание Резюме\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AF91AC-010F-4FA8-8810-DF3628B5FCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E81BC05-577E-42B2-A2DB-08FC7D61867E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8201259A-1543-47AD-BDAA-4BFA549F71B9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Status</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>Отправка резюме</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Safari</t>
+  </si>
+  <si>
+    <t>FireFox</t>
   </si>
 </sst>
 </file>
@@ -164,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -225,28 +234,55 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -262,6 +298,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -274,10 +313,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -597,7 +645,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,7 +665,7 @@
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -628,7 +676,7 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="13">
+      <c r="E2" s="7">
         <v>45755</v>
       </c>
     </row>
@@ -639,7 +687,7 @@
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -650,36 +698,46 @@
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="F4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="16" t="s">
         <v>0</v>
       </c>
     </row>
@@ -690,17 +748,17 @@
       <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
@@ -708,46 +766,46 @@
       <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
@@ -755,61 +813,61 @@
       <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="11"/>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
@@ -817,31 +875,31 @@
       <c r="C14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">
